--- a/news_sentiment_per_day_jhartmann.xlsx
+++ b/news_sentiment_per_day_jhartmann.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -636,6 +636,74 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B13" t="n">
+        <v>21</v>
+      </c>
+      <c r="C13" t="n">
+        <v>60</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B14" t="n">
+        <v>6</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B15" t="n">
+        <v>24</v>
+      </c>
+      <c r="C15" t="n">
+        <v>50</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
